--- a/biology/Zoologie/Eulalia_viridis/Eulalia_viridis.xlsx
+++ b/biology/Zoologie/Eulalia_viridis/Eulalia_viridis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eulalia viridis est une espèce d'annélides marins de la famille des Phyllodocidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eulalia annulata Verrill, 1873
 Eulalia brevisetis Saint-Joseph, 1899
@@ -546,11 +560,13 @@
           <t>Espèce voisine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eulalia clavigera Audouin &amp; Milne Edwards, 1833
-Les deux espèces Eulalia clavigera et Eulalia viridis ont été séparées en 1996 après des études génétiques[1].
-Eulalia clavigera est plus méridional que Eulalia viridis[1].
+Les deux espèces Eulalia clavigera et Eulalia viridis ont été séparées en 1996 après des études génétiques.
+Eulalia clavigera est plus méridional que Eulalia viridis.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Littoral européen de l'Atlantique nord[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Littoral européen de l'Atlantique nord.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">À marée basse sur les rochers parmi les algues et les populations de moules (Mytilus edulis) et de pouces-pieds (Pollicipes pollicipes).
 </t>
@@ -641,7 +661,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Eulalia viridis se nourrit de tissus animaux morts.
 La reproduction a lieu à partir de l'âge de deux ans.
@@ -673,12 +695,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Ver marin mesurant entre 5 et 15 cm de long pour 2 à 3 mm de large[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ver marin mesurant entre 5 et 15 cm de long pour 2 à 3 mm de large.
 Corps est composé de 60 à 200 segments identiques.
 Couleur vert émeraude à vert kaki.
-Les parapodes latéraux verts plus clair, en forme de rame[2].</t>
+Les parapodes latéraux verts plus clair, en forme de rame.</t>
         </is>
       </c>
     </row>
